--- a/lookup.xlsx
+++ b/lookup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asacarny/Repositories/hospital-cost-reports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdada/Documents/GitHub/hospital-cost-reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA14F41D-D4A4-0641-AA77-13E05DC77C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B6B69B-4E69-8A42-A352-40E005F5F258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="500" windowWidth="13080" windowHeight="19860" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
+    <workbookView xWindow="160" yWindow="680" windowWidth="13080" windowHeight="16600" activeTab="1" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="185">
   <si>
     <t>rec</t>
   </si>
@@ -579,6 +579,18 @@
   </si>
   <si>
     <t>beds - grand total (total + subprovider/snf/nf/hospice)</t>
+  </si>
+  <si>
+    <t>itotcost</t>
+  </si>
+  <si>
+    <t>C000001</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>inpatient total cost</t>
   </si>
 </sst>
 </file>
@@ -931,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2BB4DF-E65D-224C-B8BB-1875153B4956}">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2819,6 +2831,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F92">
+        <v>10</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2827,10 +2859,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F01AFD1-3AE8-2C43-8863-F91A96C0A348}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3368,6 +3400,17 @@
         <v>178</v>
       </c>
     </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" t="s">
+        <v>184</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lookup.xlsx
+++ b/lookup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdada/Documents/GitHub/hospital-cost-reports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyakesarwani/Documents/GitHub/hospital-cost-reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B6B69B-4E69-8A42-A352-40E005F5F258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96143A15-BEFF-3E40-920C-A7BA61242EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="680" windowWidth="13080" windowHeight="16600" activeTab="1" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
+    <workbookView xWindow="160" yWindow="760" windowWidth="22900" windowHeight="18880" activeTab="1" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Table" sheetId="1" r:id="rId1"/>
@@ -587,10 +587,10 @@
     <t>C000001</t>
   </si>
   <si>
+    <t>inpatient total costs</t>
+  </si>
+  <si>
     <t>20000</t>
-  </si>
-  <si>
-    <t>inpatient total cost</t>
   </si>
 </sst>
 </file>
@@ -943,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2BB4DF-E65D-224C-B8BB-1875153B4956}">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView topLeftCell="A63" zoomScale="108" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92:G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2832,24 +2832,28 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
+      <c r="A92" t="s">
         <v>181</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" t="s">
         <v>182</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="E92"/>
       <c r="F92">
         <v>10</v>
       </c>
       <c r="G92">
         <v>1</v>
       </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D94"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2862,7 +2866,7 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3401,14 +3405,14 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>181</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>108</v>
       </c>
       <c r="C49" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/lookup.xlsx
+++ b/lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyakesarwani/Documents/GitHub/hospital-cost-reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96143A15-BEFF-3E40-920C-A7BA61242EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CA38C9-2FCD-7448-B8F1-736C2F99E18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="760" windowWidth="22900" windowHeight="18880" activeTab="1" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
+    <workbookView xWindow="160" yWindow="760" windowWidth="13360" windowHeight="18880" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="207">
   <si>
     <t>rec</t>
   </si>
@@ -590,17 +590,90 @@
     <t>inpatient total costs</t>
   </si>
   <si>
-    <t>20000</t>
+    <t>i_adultandpeds_cost</t>
+  </si>
+  <si>
+    <t>i_icu_cost</t>
+  </si>
+  <si>
+    <t>i_ccu_cost</t>
+  </si>
+  <si>
+    <t>i_bicu_cost</t>
+  </si>
+  <si>
+    <t>i_sicu_cost</t>
+  </si>
+  <si>
+    <t>i_otherspecial_cost</t>
+  </si>
+  <si>
+    <t>i_subprovideripf_cost</t>
+  </si>
+  <si>
+    <t>i_subproviderirf_cost</t>
+  </si>
+  <si>
+    <t>i_subprovider_cost</t>
+  </si>
+  <si>
+    <t>i_nursery_cost</t>
+  </si>
+  <si>
+    <t>i_skillednursing_cost</t>
+  </si>
+  <si>
+    <t>i_nursing_cost</t>
+  </si>
+  <si>
+    <t>i_otherlongterm_cost</t>
+  </si>
+  <si>
+    <t>03200</t>
+  </si>
+  <si>
+    <t>03300</t>
+  </si>
+  <si>
+    <t>03400</t>
+  </si>
+  <si>
+    <t>03500</t>
+  </si>
+  <si>
+    <t>04000</t>
+  </si>
+  <si>
+    <t>04100</t>
+  </si>
+  <si>
+    <t>04400</t>
+  </si>
+  <si>
+    <t>04301</t>
+  </si>
+  <si>
+    <t>04500</t>
+  </si>
+  <si>
+    <t>04600</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -626,9 +699,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -943,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2BB4DF-E65D-224C-B8BB-1875153B4956}">
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScale="108" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:G92"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="119" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2833,16 +2907,16 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B92" t="s">
         <v>182</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="E92"/>
       <c r="F92">
@@ -2852,8 +2926,245 @@
         <v>1</v>
       </c>
     </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B93" t="s">
+        <v>182</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F93">
+        <v>10</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+    </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D94"/>
+      <c r="A94" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" t="s">
+        <v>182</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B95" t="s">
+        <v>182</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F95">
+        <v>10</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B96" t="s">
+        <v>182</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F96">
+        <v>10</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B97" t="s">
+        <v>182</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F97">
+        <v>10</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B98" t="s">
+        <v>182</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F98">
+        <v>10</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B99" t="s">
+        <v>182</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F99">
+        <v>10</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B100" t="s">
+        <v>182</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F100">
+        <v>10</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B101" t="s">
+        <v>182</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F101">
+        <v>10</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B102" t="s">
+        <v>182</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F102">
+        <v>10</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B103" t="s">
+        <v>182</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F103">
+        <v>10</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B104" t="s">
+        <v>182</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F104">
+        <v>10</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2865,8 +3176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F01AFD1-3AE8-2C43-8863-F91A96C0A348}">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/lookup.xlsx
+++ b/lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyakesarwani/Documents/GitHub/hospital-cost-reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CA38C9-2FCD-7448-B8F1-736C2F99E18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7592FB-D4EA-1445-B333-5B076A01AA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="760" windowWidth="13360" windowHeight="18880" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
+    <workbookView xWindow="160" yWindow="760" windowWidth="13360" windowHeight="18880" activeTab="1" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="218">
   <si>
     <t>rec</t>
   </si>
@@ -581,15 +581,9 @@
     <t>beds - grand total (total + subprovider/snf/nf/hospice)</t>
   </si>
   <si>
-    <t>itotcost</t>
-  </si>
-  <si>
     <t>C000001</t>
   </si>
   <si>
-    <t>inpatient total costs</t>
-  </si>
-  <si>
     <t>i_adultandpeds_cost</t>
   </si>
   <si>
@@ -657,6 +651,45 @@
   </si>
   <si>
     <t>04600</t>
+  </si>
+  <si>
+    <t>Adults and Pediatrics (General Routine Care) total cost</t>
+  </si>
+  <si>
+    <t>Intensive Care Unit total cost</t>
+  </si>
+  <si>
+    <t>Coronary Care Unit total cost</t>
+  </si>
+  <si>
+    <t>Burn Intensive Care Unit total cost</t>
+  </si>
+  <si>
+    <t>Surgical Intensive Care Unit total cost</t>
+  </si>
+  <si>
+    <t>Other Special Care (specify) total cost</t>
+  </si>
+  <si>
+    <t>Subprovider IPF total cost</t>
+  </si>
+  <si>
+    <t>Subprovider IRF total cost</t>
+  </si>
+  <si>
+    <t>Subprovider (Specify) total cost</t>
+  </si>
+  <si>
+    <t>Nursery total cost</t>
+  </si>
+  <si>
+    <t>Skilled Nursing Facility total cost</t>
+  </si>
+  <si>
+    <t>Nursing Facility total cost</t>
+  </si>
+  <si>
+    <t>Other Long Term Care total cost</t>
   </si>
 </sst>
 </file>
@@ -1019,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2BB4DF-E65D-224C-B8BB-1875153B4956}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="119" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView topLeftCell="A70" zoomScale="89" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92:A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2907,10 +2940,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B92" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>7</v>
@@ -2928,10 +2961,10 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B93" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>7</v>
@@ -2948,16 +2981,16 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B94" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F94">
         <v>10</v>
@@ -2968,16 +3001,16 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B95" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F95">
         <v>10</v>
@@ -2988,16 +3021,16 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B96" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F96">
         <v>10</v>
@@ -3008,16 +3041,16 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B97" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F97">
         <v>10</v>
@@ -3028,16 +3061,16 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B98" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F98">
         <v>10</v>
@@ -3048,16 +3081,16 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B99" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F99">
         <v>10</v>
@@ -3068,10 +3101,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B100" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>7</v>
@@ -3088,16 +3121,16 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B101" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F101">
         <v>10</v>
@@ -3108,16 +3141,16 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B102" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F102">
         <v>10</v>
@@ -3128,16 +3161,16 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B103" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F103">
         <v>10</v>
@@ -3148,16 +3181,16 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B104" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F104">
         <v>10</v>
@@ -3174,10 +3207,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F01AFD1-3AE8-2C43-8863-F91A96C0A348}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3717,13 +3750,145 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B49" t="s">
         <v>108</v>
       </c>
       <c r="C49" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>183</v>
+      </c>
+      <c r="B50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B57" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B58" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B59" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B60" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/lookup.xlsx
+++ b/lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyakesarwani/Documents/GitHub/hospital-cost-reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7592FB-D4EA-1445-B333-5B076A01AA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C44352B-8092-BD4D-86F0-93B9D8DFFAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="760" windowWidth="13360" windowHeight="18880" activeTab="1" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
+    <workbookView xWindow="160" yWindow="760" windowWidth="13360" windowHeight="18880" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Table" sheetId="1" r:id="rId1"/>
@@ -641,10 +641,10 @@
     <t>04100</t>
   </si>
   <si>
+    <t>04300</t>
+  </si>
+  <si>
     <t>04400</t>
-  </si>
-  <si>
-    <t>04301</t>
   </si>
   <si>
     <t>04500</t>
@@ -1052,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2BB4DF-E65D-224C-B8BB-1875153B4956}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="89" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:A104"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="89" workbookViewId="0">
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3130,7 +3130,7 @@
         <v>7</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F101">
         <v>10</v>
@@ -3150,7 +3150,7 @@
         <v>7</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F102">
         <v>10</v>
@@ -3209,8 +3209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F01AFD1-3AE8-2C43-8863-F91A96C0A348}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/lookup.xlsx
+++ b/lookup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyakesarwani/Documents/GitHub/hospital-cost-reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C44352B-8092-BD4D-86F0-93B9D8DFFAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA71952-05C9-1643-A80A-C4EF04D21795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="760" windowWidth="13360" windowHeight="18880" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
   </bookViews>
@@ -1053,7 +1053,7 @@
   <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" zoomScale="89" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3210,7 +3210,7 @@
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3752,8 +3752,8 @@
       <c r="A49" t="s">
         <v>182</v>
       </c>
-      <c r="B49" t="s">
-        <v>108</v>
+      <c r="B49" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C49" t="s">
         <v>205</v>
@@ -3763,8 +3763,8 @@
       <c r="A50" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B50" t="s">
-        <v>108</v>
+      <c r="B50" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C50" t="s">
         <v>206</v>
@@ -3774,8 +3774,8 @@
       <c r="A51" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B51" t="s">
-        <v>108</v>
+      <c r="B51" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C51" t="s">
         <v>207</v>
@@ -3785,8 +3785,8 @@
       <c r="A52" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B52" t="s">
-        <v>108</v>
+      <c r="B52" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C52" t="s">
         <v>208</v>
@@ -3796,8 +3796,8 @@
       <c r="A53" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B53" t="s">
-        <v>108</v>
+      <c r="B53" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C53" t="s">
         <v>209</v>
@@ -3807,8 +3807,8 @@
       <c r="A54" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B54" t="s">
-        <v>108</v>
+      <c r="B54" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C54" t="s">
         <v>210</v>
@@ -3818,8 +3818,8 @@
       <c r="A55" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B55" t="s">
-        <v>108</v>
+      <c r="B55" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C55" t="s">
         <v>211</v>
@@ -3829,8 +3829,8 @@
       <c r="A56" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B56" t="s">
-        <v>108</v>
+      <c r="B56" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C56" t="s">
         <v>212</v>
@@ -3840,8 +3840,8 @@
       <c r="A57" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B57" t="s">
-        <v>108</v>
+      <c r="B57" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C57" t="s">
         <v>213</v>
@@ -3851,8 +3851,8 @@
       <c r="A58" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B58" t="s">
-        <v>108</v>
+      <c r="B58" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C58" t="s">
         <v>214</v>
@@ -3862,8 +3862,8 @@
       <c r="A59" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B59" t="s">
-        <v>108</v>
+      <c r="B59" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C59" t="s">
         <v>215</v>
@@ -3873,8 +3873,8 @@
       <c r="A60" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B60" t="s">
-        <v>108</v>
+      <c r="B60" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C60" t="s">
         <v>216</v>
@@ -3884,8 +3884,8 @@
       <c r="A61" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B61" t="s">
-        <v>108</v>
+      <c r="B61" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C61" t="s">
         <v>217</v>

--- a/lookup.xlsx
+++ b/lookup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyakesarwani/Documents/GitHub/hospital-cost-reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA71952-05C9-1643-A80A-C4EF04D21795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC51D544-1603-084C-8D9B-3901DB581826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="760" windowWidth="13360" windowHeight="18880" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
   </bookViews>
@@ -1052,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2BB4DF-E65D-224C-B8BB-1875153B4956}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="89" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="89" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/lookup.xlsx
+++ b/lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyakesarwani/Documents/GitHub/hospital-cost-reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC51D544-1603-084C-8D9B-3901DB581826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4FF9CA-897E-914A-8426-4CCEFA998A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="760" windowWidth="13360" windowHeight="18880" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
+    <workbookView xWindow="160" yWindow="760" windowWidth="13360" windowHeight="18880" activeTab="1" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="220">
   <si>
     <t>rec</t>
   </si>
@@ -690,13 +690,19 @@
   </si>
   <si>
     <t>Other Long Term Care total cost</t>
+  </si>
+  <si>
+    <t>i_medicaid_totcost</t>
+  </si>
+  <si>
+    <t>Inpatient Medicaid total cost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -710,6 +716,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -732,10 +744,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1050,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2BB4DF-E65D-224C-B8BB-1875153B4956}">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="89" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A77" zoomScale="89" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3199,6 +3212,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F105">
+        <v>10</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3207,10 +3240,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F01AFD1-3AE8-2C43-8863-F91A96C0A348}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3891,6 +3924,17 @@
         <v>217</v>
       </c>
     </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C62" t="s">
+        <v>219</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lookup.xlsx
+++ b/lookup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyakesarwani/Documents/GitHub/hospital-cost-reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4FF9CA-897E-914A-8426-4CCEFA998A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D069E228-3145-E14B-B12A-2E62E06ABACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="760" windowWidth="13360" windowHeight="18880" activeTab="1" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
   </bookViews>
@@ -692,10 +692,10 @@
     <t>Other Long Term Care total cost</t>
   </si>
   <si>
-    <t>i_medicaid_totcost</t>
-  </si>
-  <si>
-    <t>Inpatient Medicaid total cost</t>
+    <t>medicaid_totcost</t>
+  </si>
+  <si>
+    <t>Medicaid total cost</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1066,7 @@
   <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView topLeftCell="A77" zoomScale="89" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3242,8 +3242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F01AFD1-3AE8-2C43-8863-F91A96C0A348}">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/lookup.xlsx
+++ b/lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyakesarwani/Documents/GitHub/hospital-cost-reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D069E228-3145-E14B-B12A-2E62E06ABACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D8E7F0-2119-804D-A573-6929BECE8E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="760" windowWidth="13360" windowHeight="18880" activeTab="1" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
+    <workbookView xWindow="160" yWindow="760" windowWidth="13360" windowHeight="18880" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="222">
   <si>
     <t>rec</t>
   </si>
@@ -696,6 +696,12 @@
   </si>
   <si>
     <t>Medicaid total cost</t>
+  </si>
+  <si>
+    <t>chip_totcost</t>
+  </si>
+  <si>
+    <t>CHIP total cost</t>
   </si>
 </sst>
 </file>
@@ -1063,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2BB4DF-E65D-224C-B8BB-1875153B4956}">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" zoomScale="89" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="89" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3232,6 +3238,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F106">
+        <v>10</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3240,10 +3266,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F01AFD1-3AE8-2C43-8863-F91A96C0A348}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3935,6 +3961,17 @@
         <v>219</v>
       </c>
     </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" t="s">
+        <v>221</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lookup.xlsx
+++ b/lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyakesarwani/Documents/GitHub/hospital-cost-reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D8E7F0-2119-804D-A573-6929BECE8E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B048755F-5D20-DA46-AB4B-8A4F97AEECB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="760" windowWidth="13360" windowHeight="18880" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
+    <workbookView xWindow="160" yWindow="760" windowWidth="15420" windowHeight="18880" activeTab="1" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="224">
   <si>
     <t>rec</t>
   </si>
@@ -702,6 +702,12 @@
   </si>
   <si>
     <t>CHIP total cost</t>
+  </si>
+  <si>
+    <t>indigent_totcost</t>
+  </si>
+  <si>
+    <t>Indigent total cost</t>
   </si>
 </sst>
 </file>
@@ -1069,10 +1075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2BB4DF-E65D-224C-B8BB-1875153B4956}">
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="89" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView topLeftCell="A63" zoomScale="89" workbookViewId="0">
+      <selection activeCell="F107" sqref="F107:G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3258,6 +3264,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F107">
+        <v>10</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3266,10 +3292,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F01AFD1-3AE8-2C43-8863-F91A96C0A348}">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3972,6 +3998,17 @@
         <v>221</v>
       </c>
     </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" t="s">
+        <v>223</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lookup.xlsx
+++ b/lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyakesarwani/Documents/GitHub/hospital-cost-reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B048755F-5D20-DA46-AB4B-8A4F97AEECB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DCBAEC-9E7E-3249-BF37-FE9D455DA1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="760" windowWidth="15420" windowHeight="18880" activeTab="1" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
+    <workbookView xWindow="160" yWindow="760" windowWidth="15420" windowHeight="18880" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="245">
   <si>
     <t>rec</t>
   </si>
@@ -708,6 +708,69 @@
   </si>
   <si>
     <t>Indigent total cost</t>
+  </si>
+  <si>
+    <t>o_rhc_cost</t>
+  </si>
+  <si>
+    <t>o_fqhc_cost</t>
+  </si>
+  <si>
+    <t>o_clinic_cost</t>
+  </si>
+  <si>
+    <t>o_emergency_cost</t>
+  </si>
+  <si>
+    <t>o_observationbed_cost</t>
+  </si>
+  <si>
+    <t>o_other_cost</t>
+  </si>
+  <si>
+    <t>08800</t>
+  </si>
+  <si>
+    <t>08900</t>
+  </si>
+  <si>
+    <t>09000</t>
+  </si>
+  <si>
+    <t>09100</t>
+  </si>
+  <si>
+    <t>09200</t>
+  </si>
+  <si>
+    <t>09300</t>
+  </si>
+  <si>
+    <t>o_partialhosp_cost</t>
+  </si>
+  <si>
+    <t>09399</t>
+  </si>
+  <si>
+    <t>Rural Health Clinic total cost</t>
+  </si>
+  <si>
+    <t>Federally Qualified Health Center total cost</t>
+  </si>
+  <si>
+    <t>Clinic total cost</t>
+  </si>
+  <si>
+    <t>Emergency total cost</t>
+  </si>
+  <si>
+    <t>Observation Beds total cost</t>
+  </si>
+  <si>
+    <t>Other Outpatient Service total cost</t>
+  </si>
+  <si>
+    <t>Partial Hospitalization Program total cost</t>
   </si>
 </sst>
 </file>
@@ -1075,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2BB4DF-E65D-224C-B8BB-1875153B4956}">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScale="89" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107:G107"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="89" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3284,6 +3347,146 @@
         <v>1</v>
       </c>
     </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B108" t="s">
+        <v>181</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F108">
+        <v>10</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B109" t="s">
+        <v>181</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F109">
+        <v>10</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B110" t="s">
+        <v>181</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F110">
+        <v>10</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B111" t="s">
+        <v>181</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F111">
+        <v>10</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B112" t="s">
+        <v>181</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F112">
+        <v>10</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B113" t="s">
+        <v>181</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F113">
+        <v>10</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B114" t="s">
+        <v>181</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F114">
+        <v>10</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3292,10 +3495,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F01AFD1-3AE8-2C43-8863-F91A96C0A348}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4009,6 +4212,83 @@
         <v>223</v>
       </c>
     </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C67" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C68" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C69" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C71" t="s">
+        <v>244</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lookup.xlsx
+++ b/lookup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyakesarwani/Documents/GitHub/hospital-cost-reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DCBAEC-9E7E-3249-BF37-FE9D455DA1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D0974A-1007-3348-ACD1-EFDE5C3F1D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="760" windowWidth="15420" windowHeight="18880" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
   </bookViews>
@@ -1141,7 +1141,7 @@
   <dimension ref="A1:G114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" zoomScale="89" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/lookup.xlsx
+++ b/lookup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyakesarwani/Documents/GitHub/hospital-cost-reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D0974A-1007-3348-ACD1-EFDE5C3F1D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C54935E-C593-8048-B22E-38F0BAF31238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="760" windowWidth="15420" windowHeight="18880" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
   </bookViews>
@@ -1141,7 +1141,7 @@
   <dimension ref="A1:G114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" zoomScale="89" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/lookup.xlsx
+++ b/lookup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyakesarwani/Documents/GitHub/hospital-cost-reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C54935E-C593-8048-B22E-38F0BAF31238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6AABD2-C728-1B43-ABE6-DF06A86F1984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="760" windowWidth="15420" windowHeight="18880" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
+    <workbookView xWindow="160" yWindow="760" windowWidth="24220" windowHeight="18880" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Table" sheetId="1" r:id="rId1"/>
@@ -1140,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2BB4DF-E65D-224C-B8BB-1875153B4956}">
   <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="89" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="163" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/lookup.xlsx
+++ b/lookup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyakesarwani/Documents/GitHub/hospital-cost-reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6AABD2-C728-1B43-ABE6-DF06A86F1984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531B2EF6-0AE8-3B48-BD33-EEEB40A96B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="760" windowWidth="24220" windowHeight="18880" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
   </bookViews>
@@ -1140,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2BB4DF-E65D-224C-B8BB-1875153B4956}">
   <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="163" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/lookup.xlsx
+++ b/lookup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyakesarwani/Documents/GitHub/hospital-cost-reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531B2EF6-0AE8-3B48-BD33-EEEB40A96B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700E2B6A-94FE-8747-9F43-1287176C7182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="760" windowWidth="24220" windowHeight="18880" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="246">
   <si>
     <t>rec</t>
   </si>
@@ -771,6 +771,9 @@
   </si>
   <si>
     <t>Partial Hospitalization Program total cost</t>
+  </si>
+  <si>
+    <t>medicaid_net_revenue</t>
   </si>
 </sst>
 </file>
@@ -1138,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2BB4DF-E65D-224C-B8BB-1875153B4956}">
-  <dimension ref="A1:G114"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+    <sheetView tabSelected="1" zoomScale="44" workbookViewId="0">
+      <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3484,6 +3487,26 @@
         <v>10</v>
       </c>
       <c r="G114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F115">
+        <v>10</v>
+      </c>
+      <c r="G115">
         <v>1</v>
       </c>
     </row>

--- a/lookup.xlsx
+++ b/lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyakesarwani/Documents/GitHub/hospital-cost-reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700E2B6A-94FE-8747-9F43-1287176C7182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3393EC9-6444-C546-8CF0-496CF9674A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="760" windowWidth="24220" windowHeight="18880" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
+    <workbookView xWindow="160" yWindow="760" windowWidth="24220" windowHeight="18880" activeTab="1" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="247">
   <si>
     <t>rec</t>
   </si>
@@ -774,6 +774,9 @@
   </si>
   <si>
     <t>medicaid_net_revenue</t>
+  </si>
+  <si>
+    <t>Medicaid net revenue</t>
   </si>
 </sst>
 </file>
@@ -1143,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2BB4DF-E65D-224C-B8BB-1875153B4956}">
   <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="44" workbookViewId="0">
-      <selection activeCell="G110" sqref="G110"/>
+    <sheetView topLeftCell="A72" zoomScale="44" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3518,10 +3521,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F01AFD1-3AE8-2C43-8863-F91A96C0A348}">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4312,6 +4315,17 @@
         <v>244</v>
       </c>
     </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72" t="s">
+        <v>246</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lookup.xlsx
+++ b/lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyakesarwani/Documents/GitHub/hospital-cost-reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3393EC9-6444-C546-8CF0-496CF9674A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF29CE16-59E7-2A41-B7A8-7BF97B9D7D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="760" windowWidth="24220" windowHeight="18880" activeTab="1" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
+    <workbookView xWindow="160" yWindow="760" windowWidth="24220" windowHeight="18880" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="250">
   <si>
     <t>rec</t>
   </si>
@@ -777,6 +777,15 @@
   </si>
   <si>
     <t>Medicaid net revenue</t>
+  </si>
+  <si>
+    <t>dsh</t>
+  </si>
+  <si>
+    <t>E00000A</t>
+  </si>
+  <si>
+    <t>Disproportionate share adjustment</t>
   </si>
 </sst>
 </file>
@@ -1144,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2BB4DF-E65D-224C-B8BB-1875153B4956}">
-  <dimension ref="A1:G115"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" zoomScale="44" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="141" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3513,6 +3522,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F116">
+        <v>10</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3521,10 +3550,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F01AFD1-3AE8-2C43-8863-F91A96C0A348}">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView topLeftCell="A49" zoomScale="84" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4326,6 +4355,17 @@
         <v>246</v>
       </c>
     </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C73" t="s">
+        <v>249</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lookup.xlsx
+++ b/lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyakesarwani/Documents/GitHub/hospital-cost-reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF29CE16-59E7-2A41-B7A8-7BF97B9D7D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB8B3DC-0CB1-EB45-8B8F-5A41B25451EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="760" windowWidth="24220" windowHeight="18880" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
+    <workbookView xWindow="160" yWindow="760" windowWidth="24220" windowHeight="18880" activeTab="1" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Table" sheetId="1" r:id="rId1"/>
@@ -1155,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2BB4DF-E65D-224C-B8BB-1875153B4956}">
   <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="141" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView topLeftCell="A111" zoomScale="200" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3552,8 +3552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F01AFD1-3AE8-2C43-8863-F91A96C0A348}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="84" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/lookup.xlsx
+++ b/lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyakesarwani/Documents/GitHub/hospital-cost-reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB8B3DC-0CB1-EB45-8B8F-5A41B25451EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3787C9-F56F-FC4C-A9A3-30E5B92ABCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="760" windowWidth="24220" windowHeight="18880" activeTab="1" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
+    <workbookView xWindow="160" yWindow="760" windowWidth="24220" windowHeight="18880" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Table" sheetId="1" r:id="rId1"/>
@@ -1155,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2BB4DF-E65D-224C-B8BB-1875153B4956}">
   <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" zoomScale="200" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="143" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3552,7 +3552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F01AFD1-3AE8-2C43-8863-F91A96C0A348}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A63" zoomScale="150" workbookViewId="0">
       <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>

--- a/lookup.xlsx
+++ b/lookup.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyakesarwani/Documents/GitHub/hospital-cost-reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3787C9-F56F-FC4C-A9A3-30E5B92ABCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B740FAE2-04D4-144F-835F-CEB5EA50345B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="760" windowWidth="24220" windowHeight="18880" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="252">
   <si>
     <t>rec</t>
   </si>
@@ -779,13 +779,19 @@
     <t>Medicaid net revenue</t>
   </si>
   <si>
-    <t>dsh</t>
-  </si>
-  <si>
-    <t>E00000A</t>
-  </si>
-  <si>
-    <t>Disproportionate share adjustment</t>
+    <t>E100001</t>
+  </si>
+  <si>
+    <t>medicare_payments_parta</t>
+  </si>
+  <si>
+    <t>medicare_payments_partb</t>
+  </si>
+  <si>
+    <t>Total Medicare Part A interim payments</t>
+  </si>
+  <si>
+    <t>Total Medicare Part B interim payments</t>
   </si>
 </sst>
 </file>
@@ -1153,15 +1159,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2BB4DF-E65D-224C-B8BB-1875153B4956}">
-  <dimension ref="A1:G116"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="143" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="143" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116:A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" style="1" customWidth="1"/>
     <col min="2" max="5" width="11.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.1640625" customWidth="1"/>
     <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
@@ -3524,21 +3530,41 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="C116" s="1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>197</v>
+        <v>11</v>
       </c>
       <c r="F116">
         <v>10</v>
       </c>
       <c r="G116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117">
+        <v>10</v>
+      </c>
+      <c r="G117">
         <v>1</v>
       </c>
     </row>
@@ -3550,15 +3576,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F01AFD1-3AE8-2C43-8863-F91A96C0A348}">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView topLeftCell="A63" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="70" bestFit="1" customWidth="1"/>
   </cols>
@@ -4357,13 +4383,24 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C73" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
         <v>249</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C74" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/lookup.xlsx
+++ b/lookup.xlsx
@@ -1162,7 +1162,7 @@
   <dimension ref="A1:G117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A105" zoomScale="143" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116:A117"/>
+      <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/lookup.xlsx
+++ b/lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyakesarwani/Documents/GitHub/hospital-cost-reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B740FAE2-04D4-144F-835F-CEB5EA50345B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C0CF25-71EF-B84E-9069-CB5611C72912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="760" windowWidth="24220" windowHeight="18880" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
+    <workbookView xWindow="160" yWindow="760" windowWidth="24220" windowHeight="18880" activeTab="1" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="254">
   <si>
     <t>rec</t>
   </si>
@@ -792,6 +792,12 @@
   </si>
   <si>
     <t>Total Medicare Part B interim payments</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>this is a test</t>
   </si>
 </sst>
 </file>
@@ -1159,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2BB4DF-E65D-224C-B8BB-1875153B4956}">
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="143" workbookViewId="0">
-      <selection activeCell="A123" sqref="A123"/>
+    <sheetView topLeftCell="A104" zoomScale="118" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3568,6 +3574,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F118">
+        <v>10</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3576,10 +3602,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F01AFD1-3AE8-2C43-8863-F91A96C0A348}">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="119" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4403,6 +4429,17 @@
         <v>251</v>
       </c>
     </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75" t="s">
+        <v>253</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lookup.xlsx
+++ b/lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyakesarwani/Documents/GitHub/hospital-cost-reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C0CF25-71EF-B84E-9069-CB5611C72912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F805F7DA-0326-784F-A0BB-587B48020C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="760" windowWidth="24220" windowHeight="18880" activeTab="1" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
+    <workbookView xWindow="160" yWindow="760" windowWidth="24220" windowHeight="18880" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="252">
   <si>
     <t>rec</t>
   </si>
@@ -792,12 +792,6 @@
   </si>
   <si>
     <t>Total Medicare Part B interim payments</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>this is a test</t>
   </si>
 </sst>
 </file>
@@ -1165,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2BB4DF-E65D-224C-B8BB-1875153B4956}">
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" zoomScale="118" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView tabSelected="1" zoomScale="184" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3574,26 +3568,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F118">
-        <v>10</v>
-      </c>
-      <c r="G118">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3604,8 +3578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F01AFD1-3AE8-2C43-8863-F91A96C0A348}">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="119" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView topLeftCell="A49" zoomScale="119" workbookViewId="0">
+      <selection activeCell="C75" sqref="A75:C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4430,15 +4404,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C75" t="s">
-        <v>253</v>
-      </c>
+      <c r="B75" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lookup.xlsx
+++ b/lookup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyakesarwani/Documents/GitHub/hospital-cost-reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F805F7DA-0326-784F-A0BB-587B48020C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3FAB2D-706A-014D-AD26-FA48C0F05836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="760" windowWidth="24220" windowHeight="18880" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
   </bookViews>
@@ -779,9 +779,6 @@
     <t>Medicaid net revenue</t>
   </si>
   <si>
-    <t>E100001</t>
-  </si>
-  <si>
     <t>medicare_payments_parta</t>
   </si>
   <si>
@@ -792,6 +789,9 @@
   </si>
   <si>
     <t>Total Medicare Part B interim payments</t>
+  </si>
+  <si>
+    <t>E100000</t>
   </si>
 </sst>
 </file>
@@ -1161,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2BB4DF-E65D-224C-B8BB-1875153B4956}">
   <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="184" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3530,10 +3530,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>32</v>
@@ -3550,10 +3550,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>11</v>
@@ -4383,24 +4383,24 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C73" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C74" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">

--- a/lookup.xlsx
+++ b/lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyakesarwani/Documents/GitHub/hospital-cost-reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3FAB2D-706A-014D-AD26-FA48C0F05836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1581D6-C6E1-C94E-BAF8-89C8192301E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="760" windowWidth="24220" windowHeight="18880" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
+    <workbookView xWindow="160" yWindow="760" windowWidth="24220" windowHeight="18880" activeTab="1" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Table" sheetId="1" r:id="rId1"/>
@@ -791,7 +791,7 @@
     <t>Total Medicare Part B interim payments</t>
   </si>
   <si>
-    <t>E100000</t>
+    <t>E10A181</t>
   </si>
 </sst>
 </file>
@@ -1161,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2BB4DF-E65D-224C-B8BB-1875153B4956}">
   <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView topLeftCell="A110" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3578,8 +3578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F01AFD1-3AE8-2C43-8863-F91A96C0A348}">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="119" workbookViewId="0">
-      <selection activeCell="C75" sqref="A75:C75"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="119" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/lookup.xlsx
+++ b/lookup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10222"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyakesarwani/Documents/GitHub/hospital-cost-reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1581D6-C6E1-C94E-BAF8-89C8192301E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF697C14-7647-8A42-BDB1-DBC0A8A478F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="760" windowWidth="24220" windowHeight="18880" activeTab="1" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
+    <workbookView xWindow="15440" yWindow="760" windowWidth="14800" windowHeight="18880" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="262">
   <si>
     <t>rec</t>
   </si>
@@ -792,13 +792,43 @@
   </si>
   <si>
     <t>E10A181</t>
+  </si>
+  <si>
+    <t>medicare_inpatient_costs</t>
+  </si>
+  <si>
+    <t>medicare_outpatient_costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Medicare Outpatient Costs </t>
+  </si>
+  <si>
+    <t>D00A185</t>
+  </si>
+  <si>
+    <t>Total Medicare Inpatient Operating  Costs</t>
+  </si>
+  <si>
+    <t>04900</t>
+  </si>
+  <si>
+    <t>medicare_organ_acquisition_costs</t>
+  </si>
+  <si>
+    <t>D4H0000</t>
+  </si>
+  <si>
+    <t>Medicare organ acquisition costs, Other Ancillary</t>
+  </si>
+  <si>
+    <t>organ_acquisition_costs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -818,6 +848,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -840,11 +877,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1159,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2BB4DF-E65D-224C-B8BB-1875153B4956}">
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="117" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3568,6 +3611,69 @@
         <v>1</v>
       </c>
     </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F118">
+        <v>10</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F119">
+        <v>10</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F120">
+        <v>10</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D129" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3576,10 +3682,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F01AFD1-3AE8-2C43-8863-F91A96C0A348}">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="119" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView topLeftCell="A43" zoomScale="87" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4404,7 +4510,37 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B75" s="1"/>
+      <c r="A75" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C77" t="s">
+        <v>254</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lookup.xlsx
+++ b/lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyakesarwani/Documents/GitHub/hospital-cost-reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF697C14-7647-8A42-BDB1-DBC0A8A478F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B74930-5286-5641-8064-61D3B60FDAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15440" yWindow="760" windowWidth="14800" windowHeight="18880" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
+    <workbookView xWindow="6060" yWindow="760" windowWidth="24180" windowHeight="18880" activeTab="1" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="261">
   <si>
     <t>rec</t>
   </si>
@@ -810,9 +810,6 @@
   </si>
   <si>
     <t>04900</t>
-  </si>
-  <si>
-    <t>medicare_organ_acquisition_costs</t>
   </si>
   <si>
     <t>D4H0000</t>
@@ -1204,7 +1201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2BB4DF-E65D-224C-B8BB-1875153B4956}">
   <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="117" workbookViewId="0">
+    <sheetView topLeftCell="A105" zoomScale="117" workbookViewId="0">
       <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
@@ -3633,10 +3630,10 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>7</v>
@@ -3684,8 +3681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F01AFD1-3AE8-2C43-8863-F91A96C0A348}">
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="87" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="87" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4522,13 +4519,13 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">

--- a/lookup.xlsx
+++ b/lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyakesarwani/Documents/GitHub/hospital-cost-reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B74930-5286-5641-8064-61D3B60FDAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66B8D64-894D-FE48-BBC6-4589B1D4736F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="760" windowWidth="24180" windowHeight="18880" activeTab="1" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
+    <workbookView xWindow="15320" yWindow="760" windowWidth="14920" windowHeight="18880" activeTab="1" xr2:uid="{2FC29EAB-8935-714F-80E4-2DC39A71C1EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="276">
   <si>
     <t>rec</t>
   </si>
@@ -819,6 +819,51 @@
   </si>
   <si>
     <t>organ_acquisition_costs</t>
+  </si>
+  <si>
+    <t>medicaid_dsh_revenue</t>
+  </si>
+  <si>
+    <t>DSH or supplemental payments from Medicaid</t>
+  </si>
+  <si>
+    <t>schip_net_revenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net revenue from stand-alone SCHIP </t>
+  </si>
+  <si>
+    <t>stloc_indigent_net_rev</t>
+  </si>
+  <si>
+    <t>01300</t>
+  </si>
+  <si>
+    <t>Net revenue from state or local indigent care program</t>
+  </si>
+  <si>
+    <t>priv_grants_for_charity</t>
+  </si>
+  <si>
+    <t>Private grants, donations, or endowment income restricted to funding charity care</t>
+  </si>
+  <si>
+    <t>govt_grants_for_uncomp</t>
+  </si>
+  <si>
+    <t>pymt_charity_patients</t>
+  </si>
+  <si>
+    <t>Government grants, appropriations or transfers for support of hospital operations</t>
+  </si>
+  <si>
+    <t>Partial payment by patients approved for charity care (2010 format only)</t>
+  </si>
+  <si>
+    <t>medicare_inpat_revs_pps_woimeadj</t>
+  </si>
+  <si>
+    <t>Medicare inpatient revenues from prospective payment system (without managed care IME payment adjustment)</t>
   </si>
 </sst>
 </file>
@@ -1199,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2BB4DF-E65D-224C-B8BB-1875153B4956}">
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" zoomScale="117" workbookViewId="0">
-      <selection activeCell="A123" sqref="A123"/>
+    <sheetView topLeftCell="A106" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3668,8 +3713,136 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F121">
+        <v>10</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F122">
+        <v>10</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F123">
+        <v>10</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F124">
+        <v>10</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F125">
+        <v>10</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F126">
+        <v>10</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D129" s="4"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3679,10 +3852,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F01AFD1-3AE8-2C43-8863-F91A96C0A348}">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="87" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="87" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4539,6 +4712,83 @@
         <v>254</v>
       </c>
     </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C78" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C79" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C80" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
